--- a/Docs/Testing (TES)/Test_Cases/TS_Feedback.xlsx
+++ b/Docs/Testing (TES)/Test_Cases/TS_Feedback.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="77">
   <si>
     <t>N</t>
   </si>
@@ -157,11 +157,6 @@
   </si>
   <si>
     <t>About author</t>
-  </si>
-  <si>
-    <t>1. В браузере ввести название страницы сайта 
-http://www.vashchenko.ru/aboutauthor
-2. Убедиться, что браюзер перешел на новую страницу</t>
   </si>
   <si>
     <t>Работа ссылки "LEAVE FEEDBACK" на странице "Об авторе"</t>
@@ -179,24 +174,8 @@
 сайта (F_foot)</t>
   </si>
   <si>
-    <t>1. Убедиться, что на странице отображается layout проекта
-2. Убедиться, что на странице находится заголовок 
-"About Me" с персональной информацией об авторе
-3. Убедиться, что на странице находится фотография автора
-4. Убедиться, что в теле страницы находится заголовок "Contact me" с ссылкой  на страницу "LEAVE FEEDBACK"</t>
-  </si>
-  <si>
     <t>1. На странице "Об авторе" нажать на ссылку "LEAVE FEEDBACK"
 2. Убедиться, что в адресной строке браузера поменялся url</t>
-  </si>
-  <si>
-    <t>1. Убедиться, что адресная строка в браузере отображает адрес http://www.vashchenko.ru/feedback
-2. Убедиться, что на странице отображается layout проекта
-3. Убедиться, что на странице находится заголовок "Enter your e-mail address" с полем для ввода текста
-4. Убедиться, что на странице находится заголовок "Enter your name" с полем для ввода текста
-5. Убедиться, что на странице находится заголовок "Enter subject" с полем для ввода текста
-6. Убедиться, что на странице находится заголовок "Text message" с полем для ввода текста
-7. Убедиться, что на странице находится кнопка "Send"</t>
   </si>
   <si>
     <t>1. Поле "Enter your e-mail" оставить пустым
@@ -245,6 +224,108 @@
   </si>
   <si>
     <t>Убедиться, что существует проверка e-mail</t>
+  </si>
+  <si>
+    <t>ver 1.0</t>
+  </si>
+  <si>
+    <t>Page About</t>
+  </si>
+  <si>
+    <t>Gorshkov</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>1. Pass
+2. Pass</t>
+  </si>
+  <si>
+    <t>1. Убедиться, что на странице отображается layout проекта
+2. Убедиться, что на странице находится заголовок 
+"About Me" с персональной информацией об авторе
+3. Убедиться, что на странице находится фотография автора
+4. Убедиться, что на странице находится заголовок "Contact me" с ссылкой  на страницу "LEAVE FEEDBACK"</t>
+  </si>
+  <si>
+    <t>1. Pass
+2. Pass
+3. Pass
+4. Pass</t>
+  </si>
+  <si>
+    <t>1. Pass
+2. Pass
+3. Pass</t>
+  </si>
+  <si>
+    <t>1. В браузере ввести url страницы "Об авторе"
+2. Убедиться, что браузер перешел на новую страницу</t>
+  </si>
+  <si>
+    <t>Page Feedback</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>1. Убедиться, что адресная строка в браузере отображает адрес страницы "Обратная связь"
+2. Убедиться, что на странице отображается layout проекта
+3. Убедиться, что на странице находится заголовок "Enter your e-mail address" с полем для ввода текста
+4. Убедиться, что на странице находится заголовок "Enter your name" с полем для ввода текста
+5. Убедиться, что на странице находится заголовок "Enter subject" с полем для ввода текста
+6. Убедиться, что на странице находится заголовок "Text message" с полем для ввода текста
+7. Убедиться, что на странице находится кнопка "Send"
+8. Убедиться, что на странице существует капча</t>
+  </si>
+  <si>
+    <t>1. Pass
+2. Pass
+3. Fail
+4. Fail
+5. Fail
+6. Fail
+7. Fail
+8. Pass</t>
+  </si>
+  <si>
+    <t>1. Pass
+2. Blocked
+3. Blocked
+4. Blocked</t>
+  </si>
+  <si>
+    <t>Blocked</t>
+  </si>
+  <si>
+    <t>1. Blocked
+2. Blocked
+3. Blocked
+4. Blocked</t>
+  </si>
+  <si>
+    <t>1. Blocked
+2. Blocked</t>
+  </si>
+  <si>
+    <t>1. Blocked
+2. Blocked
+3. Blocked
+4. Blocked
+5. Blocked
+6. Blocked
+7. Blocked</t>
+  </si>
+  <si>
+    <t>1. Blocked
+2. Blocked
+3. Blocked
+4. Blocked
+5. Blocked</t>
+  </si>
+  <si>
+    <t>#124</t>
   </si>
 </sst>
 </file>
@@ -315,6 +396,39 @@
   </cellStyles>
   <dxfs count="19">
     <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment vertical="top" textRotation="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -337,39 +451,6 @@
     </dxf>
     <dxf>
       <alignment vertical="top" textRotation="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -377,33 +458,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица1" displayName="Таблица1" ref="A1:F20" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица1" displayName="Таблица1" ref="A1:F20" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="A1:F20"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="N" dataDxfId="7"/>
-    <tableColumn id="2" name="Test ID" dataDxfId="6"/>
-    <tableColumn id="3" name="Test description" dataDxfId="5"/>
-    <tableColumn id="4" name="Product" dataDxfId="4"/>
-    <tableColumn id="5" name="Requirement" dataDxfId="3"/>
-    <tableColumn id="7" name="Test steps" dataDxfId="2"/>
+    <tableColumn id="1" name="N" dataDxfId="16"/>
+    <tableColumn id="2" name="Test ID" dataDxfId="15"/>
+    <tableColumn id="3" name="Test description" dataDxfId="14"/>
+    <tableColumn id="4" name="Product" dataDxfId="13"/>
+    <tableColumn id="5" name="Requirement" dataDxfId="12"/>
+    <tableColumn id="7" name="Test steps" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:I2" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A1:I2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:I13" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:I13"/>
   <tableColumns count="9">
-    <tableColumn id="2" name="N" dataDxfId="18"/>
-    <tableColumn id="3" name="Test ID" dataDxfId="17"/>
-    <tableColumn id="5" name="Product" dataDxfId="16"/>
-    <tableColumn id="6" name="Requirement" dataDxfId="15"/>
-    <tableColumn id="7" name="Tester name" dataDxfId="14"/>
-    <tableColumn id="8" name="Test steps" dataDxfId="13"/>
-    <tableColumn id="9" name="Result" dataDxfId="12"/>
-    <tableColumn id="10" name="Ticket ID" dataDxfId="11"/>
-    <tableColumn id="11" name="System" dataDxfId="10"/>
+    <tableColumn id="2" name="N" dataDxfId="8"/>
+    <tableColumn id="3" name="Test ID" dataDxfId="7"/>
+    <tableColumn id="5" name="Product" dataDxfId="6"/>
+    <tableColumn id="6" name="Requirement" dataDxfId="5"/>
+    <tableColumn id="7" name="Tester name" dataDxfId="4"/>
+    <tableColumn id="8" name="Test steps" dataDxfId="3"/>
+    <tableColumn id="9" name="Result" dataDxfId="2"/>
+    <tableColumn id="10" name="Ticket ID" dataDxfId="1"/>
+    <tableColumn id="11" name="System" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -696,8 +777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -729,7 +810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="45">
+    <row r="2" spans="1:6" ht="30">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -746,7 +827,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="120">
@@ -766,7 +847,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="105">
@@ -777,14 +858,14 @@
         <v>17</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="60">
@@ -795,7 +876,7 @@
         <v>19</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>43</v>
@@ -804,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="195">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="210">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -824,7 +905,7 @@
         <v>21</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="105">
@@ -844,7 +925,7 @@
         <v>25</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="90">
@@ -855,7 +936,7 @@
         <v>26</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>14</v>
@@ -864,7 +945,7 @@
         <v>27</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="60">
@@ -884,7 +965,7 @@
         <v>30</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="75">
@@ -904,7 +985,7 @@
         <v>33</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="90">
@@ -924,7 +1005,7 @@
         <v>36</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="120">
@@ -944,7 +1025,7 @@
         <v>39</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="90">
@@ -964,7 +1045,7 @@
         <v>42</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1042,10 +1123,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="A1:I4"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1090,16 +1171,365 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
+    <row r="2" spans="1:9" ht="30">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="60">
+      <c r="A3" s="1">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="str">
+        <f>I2</f>
+        <v>ver 1.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="45">
+      <c r="A4" s="1">
+        <f t="shared" ref="A4:A13" si="0">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="str">
+        <f t="shared" ref="I4:I13" si="1">I3</f>
+        <v>ver 1.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="45">
+      <c r="A5" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="120">
+      <c r="A6" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="60">
+      <c r="A7" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="60">
+      <c r="A8" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="60">
+      <c r="A9" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="30">
+      <c r="A10" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="60">
+      <c r="A11" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="105">
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="75">
+      <c r="A13" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I13" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/Testing (TES)/Test_Cases/TS_Feedback.xlsx
+++ b/Docs/Testing (TES)/Test_Cases/TS_Feedback.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="80">
   <si>
     <t>N</t>
   </si>
@@ -326,6 +326,17 @@
   </si>
   <si>
     <t>#124</t>
+  </si>
+  <si>
+    <t>TS_feedback_014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Убедиться, что фотография автора
+не является ссылкой </t>
+  </si>
+  <si>
+    <t>1. Нажать на фотографию автора на странице "Об авторе"
+2. Убедиться, что ничего не произошло</t>
   </si>
 </sst>
 </file>
@@ -473,8 +484,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:I13" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A1:I13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:I14" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:I14"/>
   <tableColumns count="9">
     <tableColumn id="2" name="N" dataDxfId="8"/>
     <tableColumn id="3" name="Test ID" dataDxfId="7"/>
@@ -777,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1048,13 +1059,23 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+    <row r="14" spans="1:6" ht="45">
+      <c r="A14" s="1">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="F14" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1"/>
@@ -1123,10 +1144,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1229,7 +1250,7 @@
     </row>
     <row r="4" spans="1:9" ht="45">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A13" si="0">A3+1</f>
+        <f t="shared" ref="A4:A14" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1529,6 +1550,32 @@
       <c r="I13" s="1" t="str">
         <f t="shared" si="1"/>
         <v>ver 1.0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="30">
+      <c r="A14" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Testing (TES)/Test_Cases/TS_Feedback.xlsx
+++ b/Docs/Testing (TES)/Test_Cases/TS_Feedback.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="87">
   <si>
     <t>N</t>
   </si>
@@ -337,6 +337,34 @@
   <si>
     <t>1. Нажать на фотографию автора на странице "Об авторе"
 2. Убедиться, что ничего не произошло</t>
+  </si>
+  <si>
+    <t>ver 1.1</t>
+  </si>
+  <si>
+    <t>1. Pass
+2. Fail
+3. Pass
+4. Pass</t>
+  </si>
+  <si>
+    <t>1. Pass
+2. Fail</t>
+  </si>
+  <si>
+    <t>1. Pass
+2. Pass
+3. Pass
+4. Fail</t>
+  </si>
+  <si>
+    <t>#144</t>
+  </si>
+  <si>
+    <t>#145</t>
+  </si>
+  <si>
+    <t>#146</t>
   </si>
 </sst>
 </file>
@@ -484,8 +512,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:I14" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A1:I14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:I27" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:I27"/>
   <tableColumns count="9">
     <tableColumn id="2" name="N" dataDxfId="8"/>
     <tableColumn id="3" name="Test ID" dataDxfId="7"/>
@@ -788,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1144,10 +1172,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1250,7 +1278,7 @@
     </row>
     <row r="4" spans="1:9" ht="45">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A14" si="0">A3+1</f>
+        <f t="shared" ref="A4:A13" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1554,7 +1582,7 @@
     </row>
     <row r="14" spans="1:9" ht="30">
       <c r="A14" s="1">
-        <f t="shared" si="0"/>
+        <f>A13+1</f>
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1578,10 +1606,398 @@
         <v>57</v>
       </c>
     </row>
+    <row r="15" spans="1:9" ht="30">
+      <c r="A15" s="1">
+        <f t="shared" ref="A15:A27" si="2">A14+1</f>
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="60">
+      <c r="A16" s="1">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1" t="str">
+        <f>I15</f>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="45">
+      <c r="A17" s="1">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1" t="str">
+        <f t="shared" ref="I17:I26" si="3">I16</f>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="45">
+      <c r="A18" s="1">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="120">
+      <c r="A19" s="1">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I19" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="60">
+      <c r="A20" s="1">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I20" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="60">
+      <c r="A21" s="1">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="60">
+      <c r="A22" s="1">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I22" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="30">
+      <c r="A23" s="1">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I23" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="60">
+      <c r="A24" s="1">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I24" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="105">
+      <c r="A25" s="1">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H25" s="1" t="str">
+        <f>H24</f>
+        <v>#146</v>
+      </c>
+      <c r="I25" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="75">
+      <c r="A26" s="1">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H26" s="1" t="str">
+        <f>H25</f>
+        <v>#146</v>
+      </c>
+      <c r="I26" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="30">
+      <c r="A27" s="1">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
